--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Mmrn2</t>
+  </si>
+  <si>
+    <t>Clec14a</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmrn2</t>
-  </si>
-  <si>
-    <t>Clec14a</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H2">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I2">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J2">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>10.251187</v>
+        <v>21.09834966666667</v>
       </c>
       <c r="N2">
-        <v>30.753561</v>
+        <v>63.29504900000001</v>
       </c>
       <c r="O2">
-        <v>0.7917723549639718</v>
+        <v>0.8738785659450524</v>
       </c>
       <c r="P2">
-        <v>0.7917723549639717</v>
+        <v>0.8738785659450523</v>
       </c>
       <c r="Q2">
-        <v>253.971035929291</v>
+        <v>1122.518149910426</v>
       </c>
       <c r="R2">
-        <v>2285.739323363618</v>
+        <v>10102.66334919383</v>
       </c>
       <c r="S2">
-        <v>0.7031864515472473</v>
+        <v>0.8229155446763732</v>
       </c>
       <c r="T2">
-        <v>0.7031864515472472</v>
+        <v>0.822915544676373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H3">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I3">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J3">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.218426999999999</v>
       </c>
       <c r="O3">
-        <v>0.1600978367988522</v>
+        <v>0.08585426751457281</v>
       </c>
       <c r="P3">
-        <v>0.1600978367988522</v>
+        <v>0.08585426751457279</v>
       </c>
       <c r="Q3">
-        <v>51.353413903537</v>
+        <v>110.2818827329297</v>
       </c>
       <c r="R3">
-        <v>462.1807251318329</v>
+        <v>992.5369445963669</v>
       </c>
       <c r="S3">
-        <v>0.1421856030375017</v>
+        <v>0.08084740153586523</v>
       </c>
       <c r="T3">
-        <v>0.1421856030375017</v>
+        <v>0.0808474015358652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H4">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I4">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J4">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6122486666666667</v>
+        <v>0.9498053333333333</v>
       </c>
       <c r="N4">
-        <v>1.836746</v>
+        <v>2.849416</v>
       </c>
       <c r="O4">
-        <v>0.04728833535377108</v>
+        <v>0.03934025815922644</v>
       </c>
       <c r="P4">
-        <v>0.04728833535377108</v>
+        <v>0.03934025815922643</v>
       </c>
       <c r="Q4">
-        <v>15.16833398119267</v>
+        <v>50.53351292365955</v>
       </c>
       <c r="R4">
-        <v>136.515005830734</v>
+        <v>454.8016163129359</v>
       </c>
       <c r="S4">
-        <v>0.04199757231800247</v>
+        <v>0.03704600528312368</v>
       </c>
       <c r="T4">
-        <v>0.04199757231800247</v>
+        <v>0.03704600528312367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>53.20407366666667</v>
+      </c>
+      <c r="H5">
+        <v>159.612221</v>
+      </c>
+      <c r="I5">
+        <v>0.9416818042520982</v>
+      </c>
+      <c r="J5">
+        <v>0.9416818042520981</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>24.774793</v>
-      </c>
-      <c r="H5">
-        <v>74.32437899999999</v>
-      </c>
-      <c r="I5">
-        <v>0.888116953236192</v>
-      </c>
-      <c r="J5">
-        <v>0.888116953236192</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.01089466666666667</v>
+        <v>0.02237866666666667</v>
       </c>
       <c r="N5">
-        <v>0.032684</v>
+        <v>0.067136</v>
       </c>
       <c r="O5">
-        <v>0.000841472883405029</v>
+        <v>0.0009269083811482166</v>
       </c>
       <c r="P5">
-        <v>0.0008414728834050292</v>
+        <v>0.0009269083811482163</v>
       </c>
       <c r="Q5">
-        <v>0.2699131114706666</v>
+        <v>1.190636229895111</v>
       </c>
       <c r="R5">
-        <v>2.429218003236</v>
+        <v>10.715726069056</v>
       </c>
       <c r="S5">
-        <v>0.0007473263334405478</v>
+        <v>0.0008728527567360441</v>
       </c>
       <c r="T5">
-        <v>0.0007473263334405479</v>
+        <v>0.0008728527567360439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>4.923056</v>
       </c>
       <c r="I6">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J6">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>10.251187</v>
+        <v>21.09834966666667</v>
       </c>
       <c r="N6">
-        <v>30.753561</v>
+        <v>63.29504900000001</v>
       </c>
       <c r="O6">
-        <v>0.7917723549639718</v>
+        <v>0.8738785659450524</v>
       </c>
       <c r="P6">
-        <v>0.7917723549639717</v>
+        <v>0.8738785659450523</v>
       </c>
       <c r="Q6">
-        <v>16.82238922249067</v>
+        <v>34.62278563886044</v>
       </c>
       <c r="R6">
-        <v>151.401503002416</v>
+        <v>311.605070749744</v>
       </c>
       <c r="S6">
-        <v>0.04657726476811041</v>
+        <v>0.02538188670222368</v>
       </c>
       <c r="T6">
-        <v>0.04657726476811041</v>
+        <v>0.02538188670222367</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>4.923056</v>
       </c>
       <c r="I7">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J7">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.218426999999999</v>
       </c>
       <c r="O7">
-        <v>0.1600978367988522</v>
+        <v>0.08585426751457281</v>
       </c>
       <c r="P7">
-        <v>0.1600978367988522</v>
+        <v>0.08585426751457279</v>
       </c>
       <c r="Q7">
         <v>3.401518261434667</v>
@@ -883,10 +883,10 @@
         <v>30.613664352912</v>
       </c>
       <c r="S7">
-        <v>0.00941800921266212</v>
+        <v>0.002493645428413345</v>
       </c>
       <c r="T7">
-        <v>0.00941800921266212</v>
+        <v>0.002493645428413344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>4.923056</v>
       </c>
       <c r="I8">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J8">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6122486666666667</v>
+        <v>0.9498053333333333</v>
       </c>
       <c r="N8">
-        <v>1.836746</v>
+        <v>2.849416</v>
       </c>
       <c r="O8">
-        <v>0.04728833535377108</v>
+        <v>0.03934025815922644</v>
       </c>
       <c r="P8">
-        <v>0.04728833535377108</v>
+        <v>0.03934025815922643</v>
       </c>
       <c r="Q8">
-        <v>1.004711490641778</v>
+        <v>1.558648281699555</v>
       </c>
       <c r="R8">
-        <v>9.042403415776</v>
+        <v>14.027834535296</v>
       </c>
       <c r="S8">
-        <v>0.002781811340604352</v>
+        <v>0.001142641568687361</v>
       </c>
       <c r="T8">
-        <v>0.002781811340604352</v>
+        <v>0.001142641568687361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>4.923056</v>
       </c>
       <c r="I9">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J9">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01089466666666667</v>
+        <v>0.02237866666666667</v>
       </c>
       <c r="N9">
-        <v>0.032684</v>
+        <v>0.067136</v>
       </c>
       <c r="O9">
-        <v>0.000841472883405029</v>
+        <v>0.0009269083811482166</v>
       </c>
       <c r="P9">
-        <v>0.0008414728834050292</v>
+        <v>0.0009269083811482163</v>
       </c>
       <c r="Q9">
-        <v>0.01787835136711111</v>
+        <v>0.03672380973511111</v>
       </c>
       <c r="R9">
-        <v>0.160905162304</v>
+        <v>0.330514287616</v>
       </c>
       <c r="S9">
-        <v>4.950097719353282E-05</v>
+        <v>2.692214276728799E-05</v>
       </c>
       <c r="T9">
-        <v>4.950097719353283E-05</v>
+        <v>2.692214276728798E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H10">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I10">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J10">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>10.251187</v>
+        <v>21.09834966666667</v>
       </c>
       <c r="N10">
-        <v>30.753561</v>
+        <v>63.29504900000001</v>
       </c>
       <c r="O10">
-        <v>0.7917723549639718</v>
+        <v>0.8738785659450524</v>
       </c>
       <c r="P10">
-        <v>0.7917723549639717</v>
+        <v>0.8738785659450523</v>
       </c>
       <c r="Q10">
-        <v>14.763708261465</v>
+        <v>34.89457457926645</v>
       </c>
       <c r="R10">
-        <v>132.873374353185</v>
+        <v>314.051171213398</v>
       </c>
       <c r="S10">
-        <v>0.04087725825140449</v>
+        <v>0.0255811345664556</v>
       </c>
       <c r="T10">
-        <v>0.04087725825140448</v>
+        <v>0.02558113456645559</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H11">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I11">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J11">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.218426999999999</v>
       </c>
       <c r="O11">
-        <v>0.1600978367988522</v>
+        <v>0.08585426751457281</v>
       </c>
       <c r="P11">
-        <v>0.1600978367988522</v>
+        <v>0.08585426751457279</v>
       </c>
       <c r="Q11">
-        <v>2.985249157755</v>
+        <v>3.428220186972667</v>
       </c>
       <c r="R11">
-        <v>26.867242419795</v>
+        <v>30.853981682754</v>
       </c>
       <c r="S11">
-        <v>0.008265457336680666</v>
+        <v>0.002513220550294239</v>
       </c>
       <c r="T11">
-        <v>0.008265457336680666</v>
+        <v>0.002513220550294237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H12">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I12">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J12">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6122486666666667</v>
+        <v>0.9498053333333333</v>
       </c>
       <c r="N12">
-        <v>1.836746</v>
+        <v>2.849416</v>
       </c>
       <c r="O12">
-        <v>0.04728833535377108</v>
+        <v>0.03934025815922644</v>
       </c>
       <c r="P12">
-        <v>0.04728833535377108</v>
+        <v>0.03934025815922643</v>
       </c>
       <c r="Q12">
-        <v>0.88175746849</v>
+        <v>1.570883674003555</v>
       </c>
       <c r="R12">
-        <v>7.93581721641</v>
+        <v>14.137953066032</v>
       </c>
       <c r="S12">
-        <v>0.002441380384672662</v>
+        <v>0.001151611307415397</v>
       </c>
       <c r="T12">
-        <v>0.002441380384672662</v>
+        <v>0.001151611307415397</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H13">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I13">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J13">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01089466666666667</v>
+        <v>0.02237866666666667</v>
       </c>
       <c r="N13">
-        <v>0.032684</v>
+        <v>0.067136</v>
       </c>
       <c r="O13">
-        <v>0.000841472883405029</v>
+        <v>0.0009269083811482166</v>
       </c>
       <c r="P13">
-        <v>0.0008414728834050292</v>
+        <v>0.0009269083811482163</v>
       </c>
       <c r="Q13">
-        <v>0.01569044446</v>
+        <v>0.03701209171911111</v>
       </c>
       <c r="R13">
-        <v>0.14121400014</v>
+        <v>0.333108825472</v>
       </c>
       <c r="S13">
-        <v>4.34431742291211E-05</v>
+        <v>2.713348164488447E-05</v>
       </c>
       <c r="T13">
-        <v>4.344317422912111E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.039861</v>
-      </c>
-      <c r="H14">
-        <v>0.119583</v>
-      </c>
-      <c r="I14">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J14">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>10.251187</v>
-      </c>
-      <c r="N14">
-        <v>30.753561</v>
-      </c>
-      <c r="O14">
-        <v>0.7917723549639718</v>
-      </c>
-      <c r="P14">
-        <v>0.7917723549639717</v>
-      </c>
-      <c r="Q14">
-        <v>0.408622565007</v>
-      </c>
-      <c r="R14">
-        <v>3.677603085063</v>
-      </c>
-      <c r="S14">
-        <v>0.001131380397209568</v>
-      </c>
-      <c r="T14">
-        <v>0.001131380397209568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.039861</v>
-      </c>
-      <c r="H15">
-        <v>0.119583</v>
-      </c>
-      <c r="I15">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J15">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.072809</v>
-      </c>
-      <c r="N15">
-        <v>6.218426999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.1600978367988522</v>
-      </c>
-      <c r="P15">
-        <v>0.1600978367988522</v>
-      </c>
-      <c r="Q15">
-        <v>0.082624239549</v>
-      </c>
-      <c r="R15">
-        <v>0.7436181559409999</v>
-      </c>
-      <c r="S15">
-        <v>0.000228767212007699</v>
-      </c>
-      <c r="T15">
-        <v>0.0002287672120076989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.039861</v>
-      </c>
-      <c r="H16">
-        <v>0.119583</v>
-      </c>
-      <c r="I16">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J16">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6122486666666667</v>
-      </c>
-      <c r="N16">
-        <v>1.836746</v>
-      </c>
-      <c r="O16">
-        <v>0.04728833535377108</v>
-      </c>
-      <c r="P16">
-        <v>0.04728833535377108</v>
-      </c>
-      <c r="Q16">
-        <v>0.024404844102</v>
-      </c>
-      <c r="R16">
-        <v>0.219643596918</v>
-      </c>
-      <c r="S16">
-        <v>6.757131049159106E-05</v>
-      </c>
-      <c r="T16">
-        <v>6.757131049159105E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.039861</v>
-      </c>
-      <c r="H17">
-        <v>0.119583</v>
-      </c>
-      <c r="I17">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J17">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01089466666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.032684</v>
-      </c>
-      <c r="O17">
-        <v>0.000841472883405029</v>
-      </c>
-      <c r="P17">
-        <v>0.0008414728834050292</v>
-      </c>
-      <c r="Q17">
-        <v>0.0004342723079999999</v>
-      </c>
-      <c r="R17">
-        <v>0.003908450771999999</v>
-      </c>
-      <c r="S17">
-        <v>1.202398541827319E-06</v>
-      </c>
-      <c r="T17">
-        <v>1.202398541827319E-06</v>
+        <v>2.713348164488446E-05</v>
       </c>
     </row>
   </sheetData>
